--- a/data/excel/resourceType_relatedItem.xlsx
+++ b/data/excel/resourceType_relatedItem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\moon.ntkcz.cz\petka\NUŠL\SW\INVENIO 3\taxonomie\současné_hotové\NR_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cernohlp\Documents\GitHub\nr-taxonomies\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,9 +107,6 @@
     <t>trade-literature</t>
   </si>
   <si>
-    <t>theses-(etds)</t>
-  </si>
-  <si>
     <t>methodologies-and-procedures</t>
   </si>
   <si>
@@ -503,33 +500,6 @@
     <t>review</t>
   </si>
   <si>
-    <t>conference-paper</t>
-  </si>
-  <si>
-    <t>conference-proceeding</t>
-  </si>
-  <si>
-    <t>conference-programme</t>
-  </si>
-  <si>
-    <t>conference-poster</t>
-  </si>
-  <si>
-    <t>bachelor-thesis</t>
-  </si>
-  <si>
-    <t>master-thesis</t>
-  </si>
-  <si>
-    <t>rigorous-thesis</t>
-  </si>
-  <si>
-    <t>doctoral-thesis</t>
-  </si>
-  <si>
-    <t>post-doctoral-thesis</t>
-  </si>
-  <si>
     <t>certified-methodology</t>
   </si>
   <si>
@@ -542,24 +512,6 @@
     <t>treatment-procedure</t>
   </si>
   <si>
-    <t>annual-report</t>
-  </si>
-  <si>
-    <t>research-report</t>
-  </si>
-  <si>
-    <t>project-report</t>
-  </si>
-  <si>
-    <t>conservation-report</t>
-  </si>
-  <si>
-    <t>field-report</t>
-  </si>
-  <si>
-    <t>business-trip-report</t>
-  </si>
-  <si>
     <t>press-release</t>
   </si>
   <si>
@@ -569,9 +521,6 @@
     <t>educational-material</t>
   </si>
   <si>
-    <t>statistical-or-status-report</t>
-  </si>
-  <si>
     <t>exhibition-catalogue-or-guide</t>
   </si>
   <si>
@@ -678,6 +627,57 @@
   </si>
   <si>
     <t>dataCiteType</t>
+  </si>
+  <si>
+    <t>theses</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>proceeding</t>
+  </si>
+  <si>
+    <t>programme</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>bachelor</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>rigorous</t>
+  </si>
+  <si>
+    <t>doctoral</t>
+  </si>
+  <si>
+    <t>post-doctoral</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>statistical-or-status</t>
+  </si>
+  <si>
+    <t>conservation</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>business-trip</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1081,10 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1144,19 +1144,19 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1164,25 +1164,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1190,25 +1190,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1216,22 +1216,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1239,22 +1239,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1279,22 +1279,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1302,22 +1302,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1325,22 +1325,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1348,22 +1348,22 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1371,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>22</v>
@@ -1394,22 +1394,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1417,22 +1417,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1440,25 +1440,25 @@
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1466,25 +1466,25 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1492,25 +1492,25 @@
         <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>17</v>
@@ -1535,22 +1535,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1558,22 +1558,22 @@
         <v>2</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1581,25 +1581,25 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1607,22 +1607,22 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1647,22 +1647,22 @@
         <v>2</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H27" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1670,22 +1670,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1693,22 +1693,22 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="H29" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1716,25 +1716,25 @@
         <v>2</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H30" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1742,22 +1742,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H31" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I31" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1765,22 +1765,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H32" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I32" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1788,22 +1788,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H33" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1811,22 +1811,22 @@
         <v>2</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H34" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>19</v>
@@ -1854,22 +1854,22 @@
         <v>26</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1877,22 +1877,22 @@
         <v>2</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1900,22 +1900,22 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1923,22 +1923,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1946,22 +1946,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1969,22 +1969,22 @@
         <v>1</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1992,25 +1992,25 @@
         <v>1</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="H42" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="I42" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2018,22 +2018,22 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2041,22 +2041,22 @@
         <v>1</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="G44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I44" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2064,22 +2064,22 @@
         <v>1</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2087,25 +2087,25 @@
         <v>1</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2113,22 +2113,22 @@
         <v>1</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" t="s">
         <v>97</v>
       </c>
-      <c r="H47" t="s">
-        <v>98</v>
-      </c>
       <c r="I47" s="17" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2136,22 +2136,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2159,22 +2159,22 @@
         <v>1</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2182,22 +2182,22 @@
         <v>1</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2205,22 +2205,22 @@
         <v>1</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2228,22 +2228,22 @@
         <v>1</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
         <v>68</v>
       </c>
-      <c r="C52" t="s">
-        <v>69</v>
-      </c>
       <c r="D52" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -2251,25 +2251,25 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
